--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/4_fold/22.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/4_fold/22.xlsx
@@ -479,13 +479,13 @@
         <v>-0.4144672764321755</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.937385037429647</v>
+        <v>-1.938823914823237</v>
       </c>
       <c r="F2" t="n">
-        <v>0.128680834428253</v>
+        <v>0.1287231758228894</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.1465586713813094</v>
+        <v>-0.1462199402242186</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.4423764651419367</v>
       </c>
       <c r="E3" t="n">
-        <v>-2.079189288162972</v>
+        <v>-2.080569033608881</v>
       </c>
       <c r="F3" t="n">
-        <v>0.06694708104845144</v>
+        <v>0.06629297950372434</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.1195638422284985</v>
+        <v>-0.1193740359766804</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.5043342174325809</v>
       </c>
       <c r="E4" t="n">
-        <v>-2.290362613767507</v>
+        <v>-2.291977426956052</v>
       </c>
       <c r="F4" t="n">
-        <v>0.05361684197845502</v>
+        <v>0.05292331913527339</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.1426661831709468</v>
+        <v>-0.1424617764382196</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.5894301763336838</v>
       </c>
       <c r="E5" t="n">
-        <v>-2.459966180151734</v>
+        <v>-2.461691956995188</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0001016993023784781</v>
+        <v>-0.0004647993568940971</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.16810606110694</v>
+        <v>-0.1677191483628492</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.6803074414219088</v>
       </c>
       <c r="E6" t="n">
-        <v>-2.529267362786715</v>
+        <v>-2.531274928911714</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.07237946807460206</v>
+        <v>-0.07306131053305642</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.1718613047967572</v>
+        <v>-0.1714101499366664</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.7556059747062097</v>
       </c>
       <c r="E7" t="n">
-        <v>-2.328772828919087</v>
+        <v>-2.330580368455632</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.1220196431174069</v>
+        <v>-0.1236300761616792</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.1476361868724</v>
+        <v>-0.1473120561962183</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.8011718070063517</v>
       </c>
       <c r="E8" t="n">
-        <v>-2.020133262981897</v>
+        <v>-2.022159809732079</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.1700990267510304</v>
+        <v>-0.1718233435463935</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.1168715135488628</v>
+        <v>-0.1164977412375902</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.8081532848233819</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.66583507314581</v>
+        <v>-1.668229552014901</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.09952614222886749</v>
+        <v>-0.1017483354232305</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.07406874371578342</v>
+        <v>-0.07368329101978353</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.7709749279320405</v>
       </c>
       <c r="E10" t="n">
-        <v>-1.23390904641229</v>
+        <v>-1.236325426002744</v>
       </c>
       <c r="F10" t="n">
-        <v>0.01223031879355704</v>
+        <v>0.01080093171255742</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.01119907292125485</v>
+        <v>-0.01090998339925493</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.6831934807362264</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.9206761691811015</v>
+        <v>-0.9227698781434647</v>
       </c>
       <c r="F11" t="n">
-        <v>0.07595557776935812</v>
+        <v>0.07454809140972213</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.01640268431725345</v>
+        <v>-0.01619681753643533</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-0.5420596691049838</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.5549063814947452</v>
+        <v>-0.5567431219931084</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1462364526733392</v>
+        <v>0.144928249583885</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.02058864219388869</v>
+        <v>-0.02108359849670674</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-0.3501722787014315</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.1094792900645921</v>
+        <v>-0.1112912097454098</v>
       </c>
       <c r="F13" t="n">
-        <v>0.01111484205210279</v>
+        <v>0.009205099149194216</v>
       </c>
       <c r="G13" t="n">
-        <v>0.04828474635045645</v>
+        <v>0.04754450196836574</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-0.1197041923745897</v>
       </c>
       <c r="E14" t="n">
-        <v>0.3449227169803768</v>
+        <v>0.3427647659020137</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.1618935564801235</v>
+        <v>-0.1638120596715775</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1174457643687106</v>
+        <v>0.1162791859440746</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.1296094013673912</v>
       </c>
       <c r="E15" t="n">
-        <v>0.8892534660886852</v>
+        <v>0.8873641638590494</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.1834789074561177</v>
+        <v>-0.1854499723788444</v>
       </c>
       <c r="G15" t="n">
-        <v>0.1992975203931432</v>
+        <v>0.1981207216318707</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.3722271791569569</v>
       </c>
       <c r="E16" t="n">
-        <v>1.586664417336407</v>
+        <v>1.585918332761953</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.5189877384103003</v>
+        <v>-0.5204682271744817</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2642346192843985</v>
+        <v>0.2629775178781261</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.6007782793812333</v>
       </c>
       <c r="E17" t="n">
-        <v>2.288973829929128</v>
+        <v>2.289131515122945</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.6858288938065282</v>
+        <v>-0.6872451404547096</v>
       </c>
       <c r="G17" t="n">
-        <v>0.3747033178906415</v>
+        <v>0.3733921947050055</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.822851342965688</v>
       </c>
       <c r="E18" t="n">
-        <v>3.049923153997014</v>
+        <v>3.050653178042468</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.9630058834327265</v>
+        <v>-0.9651886553286351</v>
       </c>
       <c r="G18" t="n">
-        <v>0.4863108540077934</v>
+        <v>0.4848654063977937</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>1.051824234917136</v>
       </c>
       <c r="E19" t="n">
-        <v>3.677137913130028</v>
+        <v>3.678300111410391</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.202715118950026</v>
+        <v>-1.204591280746844</v>
       </c>
       <c r="G19" t="n">
-        <v>0.6059150735188522</v>
+        <v>0.6046010302370344</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>1.284638731430976</v>
       </c>
       <c r="E20" t="n">
-        <v>4.334258837309124</v>
+        <v>4.336137919202123</v>
       </c>
       <c r="F20" t="n">
-        <v>-1.46240365254332</v>
+        <v>-1.464469620591956</v>
       </c>
       <c r="G20" t="n">
-        <v>0.71894615652464</v>
+        <v>0.7170057526118223</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>1.510078721106815</v>
       </c>
       <c r="E21" t="n">
-        <v>4.856128206586892</v>
+        <v>4.85869497113071</v>
       </c>
       <c r="F21" t="n">
-        <v>-1.733755050286792</v>
+        <v>-1.736286773676428</v>
       </c>
       <c r="G21" t="n">
-        <v>0.8662431081759641</v>
+        <v>0.864293943974601</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>1.713605600704766</v>
       </c>
       <c r="E22" t="n">
-        <v>5.370200919059209</v>
+        <v>5.373652472746118</v>
       </c>
       <c r="F22" t="n">
-        <v>-1.952827236063143</v>
+        <v>-1.955983860035687</v>
       </c>
       <c r="G22" t="n">
-        <v>0.9530108461224862</v>
+        <v>0.9512252073073049</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>1.889957370645619</v>
       </c>
       <c r="E23" t="n">
-        <v>5.715677498330026</v>
+        <v>5.718825362014025</v>
       </c>
       <c r="F23" t="n">
-        <v>-2.200066669609304</v>
+        <v>-2.203769351567848</v>
       </c>
       <c r="G23" t="n">
-        <v>1.063297038717366</v>
+        <v>1.060820797155185</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>2.035701998528265</v>
       </c>
       <c r="E24" t="n">
-        <v>6.135251518214458</v>
+        <v>6.139475437341457</v>
       </c>
       <c r="F24" t="n">
-        <v>-2.427921774676515</v>
+        <v>-2.432144963779468</v>
       </c>
       <c r="G24" t="n">
-        <v>1.182750873275061</v>
+        <v>1.180325733396062</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>2.150525852328005</v>
       </c>
       <c r="E25" t="n">
-        <v>6.421244278213563</v>
+        <v>6.426225962299744</v>
       </c>
       <c r="F25" t="n">
-        <v>-2.552597471231345</v>
+        <v>-2.556515510283299</v>
       </c>
       <c r="G25" t="n">
-        <v>1.256572364799496</v>
+        <v>1.254283009392951</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>2.230697832846059</v>
       </c>
       <c r="E26" t="n">
-        <v>6.582237941005702</v>
+        <v>6.588215377889882</v>
       </c>
       <c r="F26" t="n">
-        <v>-2.602411391996968</v>
+        <v>-2.606446234896195</v>
       </c>
       <c r="G26" t="n">
-        <v>1.319783686847297</v>
+        <v>1.317843282934479</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>2.276558090796118</v>
       </c>
       <c r="E27" t="n">
-        <v>6.685304195791038</v>
+        <v>6.691668545419309</v>
       </c>
       <c r="F27" t="n">
-        <v>-2.684339070522128</v>
+        <v>-2.688345442483581</v>
       </c>
       <c r="G27" t="n">
-        <v>1.331640737393566</v>
+        <v>1.329339701602294</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>2.286764054159812</v>
       </c>
       <c r="E28" t="n">
-        <v>6.866063989637898</v>
+        <v>6.872514482103533</v>
       </c>
       <c r="F28" t="n">
-        <v>-2.71254135944612</v>
+        <v>-2.715822087506392</v>
       </c>
       <c r="G28" t="n">
-        <v>1.371167159310647</v>
+        <v>1.369184414003193</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>2.264080901417358</v>
       </c>
       <c r="E29" t="n">
-        <v>6.829089731783727</v>
+        <v>6.835897936031634</v>
       </c>
       <c r="F29" t="n">
-        <v>-2.732909760338342</v>
+        <v>-2.736079524743705</v>
       </c>
       <c r="G29" t="n">
-        <v>1.356365191765014</v>
+        <v>1.354894923337469</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>2.210296320890015</v>
       </c>
       <c r="E30" t="n">
-        <v>6.764059189814653</v>
+        <v>6.770766650744288</v>
       </c>
       <c r="F30" t="n">
-        <v>-2.637785437143504</v>
+        <v>-2.640563178636458</v>
       </c>
       <c r="G30" t="n">
-        <v>1.339360011650201</v>
+        <v>1.338034287983656</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>2.12896817312564</v>
       </c>
       <c r="E31" t="n">
-        <v>6.785050301217647</v>
+        <v>6.791845365032737</v>
       </c>
       <c r="F31" t="n">
-        <v>-2.539543181250531</v>
+        <v>-2.541634700140757</v>
       </c>
       <c r="G31" t="n">
-        <v>1.301004548302029</v>
+        <v>1.29951237915312</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>2.02508742216092</v>
       </c>
       <c r="E32" t="n">
-        <v>6.742094226335023</v>
+        <v>6.748924331304294</v>
       </c>
       <c r="F32" t="n">
-        <v>-2.407476721259521</v>
+        <v>-2.408898808100066</v>
       </c>
       <c r="G32" t="n">
-        <v>1.253874195927496</v>
+        <v>1.252636075146406</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.90663765643773</v>
       </c>
       <c r="E33" t="n">
-        <v>6.573645557990704</v>
+        <v>6.581091803254338</v>
       </c>
       <c r="F33" t="n">
-        <v>-2.372350884288439</v>
+        <v>-2.373442270236393</v>
       </c>
       <c r="G33" t="n">
-        <v>1.195742381187967</v>
+        <v>1.194637124783149</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.782143811110724</v>
       </c>
       <c r="E34" t="n">
-        <v>6.27894507117742</v>
+        <v>6.285226198064509</v>
       </c>
       <c r="F34" t="n">
-        <v>-2.336671689090903</v>
+        <v>-2.337227237389494</v>
       </c>
       <c r="G34" t="n">
-        <v>1.14592262022998</v>
+        <v>1.144722460699253</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.660994575904563</v>
       </c>
       <c r="E35" t="n">
-        <v>6.08404763166629</v>
+        <v>6.08973451898038</v>
       </c>
       <c r="F35" t="n">
-        <v>-2.29747815813855</v>
+        <v>-2.298651306779595</v>
       </c>
       <c r="G35" t="n">
-        <v>1.086154091580541</v>
+        <v>1.084784566471269</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>1.54941234608883</v>
       </c>
       <c r="E36" t="n">
-        <v>5.886824335546343</v>
+        <v>5.892655767621433</v>
       </c>
       <c r="F36" t="n">
-        <v>-2.235664102113748</v>
+        <v>-2.236212350171884</v>
       </c>
       <c r="G36" t="n">
-        <v>1.062743680490911</v>
+        <v>1.061755227933366</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>1.452575583812391</v>
       </c>
       <c r="E37" t="n">
-        <v>5.582372187533879</v>
+        <v>5.587959791577787</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.18998649758967</v>
+        <v>-2.190969109954851</v>
       </c>
       <c r="G37" t="n">
-        <v>0.9583181209329393</v>
+        <v>0.9571836635663034</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>1.369702908281283</v>
       </c>
       <c r="E38" t="n">
-        <v>5.27627164522678</v>
+        <v>5.282171699562142</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.143756264863182</v>
+        <v>-2.144720626627227</v>
       </c>
       <c r="G38" t="n">
-        <v>0.8849594646533226</v>
+        <v>0.8839213704606866</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>1.298979454301685</v>
       </c>
       <c r="E39" t="n">
-        <v>4.960559606337228</v>
+        <v>4.966119469467409</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.08546092473747</v>
+        <v>-2.086244240538243</v>
       </c>
       <c r="G39" t="n">
-        <v>0.8046655799418897</v>
+        <v>0.8035077618057991</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>1.234765265533812</v>
       </c>
       <c r="E40" t="n">
-        <v>4.669953094370852</v>
+        <v>4.675362572547669</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.104491191554374</v>
+        <v>-2.105138722882693</v>
       </c>
       <c r="G40" t="n">
-        <v>0.7637608726269915</v>
+        <v>0.7627782602618101</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>1.173610434000782</v>
       </c>
       <c r="E41" t="n">
-        <v>4.349850690871937</v>
+        <v>4.355414934146391</v>
       </c>
       <c r="F41" t="n">
-        <v>-1.999230484488403</v>
+        <v>-1.999888236153357</v>
       </c>
       <c r="G41" t="n">
-        <v>0.6843707576838312</v>
+        <v>0.6833282833469223</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>1.110552977346174</v>
       </c>
       <c r="E42" t="n">
-        <v>3.974609571219857</v>
+        <v>3.979239383716128</v>
       </c>
       <c r="F42" t="n">
-        <v>-1.908559307970836</v>
+        <v>-1.909253560838063</v>
       </c>
       <c r="G42" t="n">
-        <v>0.6045586888423979</v>
+        <v>0.6038593258068528</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>1.044660712558171</v>
       </c>
       <c r="E43" t="n">
-        <v>3.674597429451846</v>
+        <v>3.678986334013118</v>
       </c>
       <c r="F43" t="n">
-        <v>-1.85623264444076</v>
+        <v>-1.856810823484759</v>
       </c>
       <c r="G43" t="n">
-        <v>0.5647285769224086</v>
+        <v>0.5640657150891362</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.9743207360343971</v>
       </c>
       <c r="E44" t="n">
-        <v>3.375202888026291</v>
+        <v>3.378800446522289</v>
       </c>
       <c r="F44" t="n">
-        <v>-1.761801114065058</v>
+        <v>-1.762109184212239</v>
       </c>
       <c r="G44" t="n">
-        <v>0.5152402468810583</v>
+        <v>0.5144094795173313</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.9019785283272307</v>
       </c>
       <c r="E45" t="n">
-        <v>3.092813526715548</v>
+        <v>3.096555629972547</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.67916969236008</v>
+        <v>-1.67957266563317</v>
       </c>
       <c r="G45" t="n">
-        <v>0.4212642515097199</v>
+        <v>0.4202670386636293</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.8280626270307724</v>
       </c>
       <c r="E46" t="n">
-        <v>2.799009509430082</v>
+        <v>2.802718031580989</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.60050376127001</v>
+        <v>-1.601135962093373</v>
       </c>
       <c r="G46" t="n">
-        <v>0.38358625047573</v>
+        <v>0.3825934177739121</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.7560498627369121</v>
       </c>
       <c r="E47" t="n">
-        <v>2.470254860944443</v>
+        <v>2.473852419440441</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.479762164296133</v>
+        <v>-1.480106735645588</v>
       </c>
       <c r="G47" t="n">
-        <v>0.3197777687587472</v>
+        <v>0.3187206939409293</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.6863792685464568</v>
       </c>
       <c r="E48" t="n">
-        <v>2.17920449435843</v>
+        <v>2.182428280543156</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.376368858738434</v>
+        <v>-1.376125030707252</v>
       </c>
       <c r="G48" t="n">
-        <v>0.2904074413620278</v>
+        <v>0.2896233955372098</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.6210578285298954</v>
       </c>
       <c r="E49" t="n">
-        <v>1.900475473611595</v>
+        <v>1.90310210012714</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.290767699216548</v>
+        <v>-1.290666955898275</v>
       </c>
       <c r="G49" t="n">
-        <v>0.2368411970027695</v>
+        <v>0.2358790253108606</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.5599776870884638</v>
       </c>
       <c r="E50" t="n">
-        <v>1.765932042034359</v>
+        <v>1.768427264221722</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.169812935221398</v>
+        <v>-1.169518005507035</v>
       </c>
       <c r="G50" t="n">
-        <v>0.1980447991311435</v>
+        <v>0.1972768138353255</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.504016816684091</v>
       </c>
       <c r="E51" t="n">
-        <v>1.493501668751705</v>
+        <v>1.495135462565432</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.0940904610826</v>
+        <v>-1.094074400553601</v>
       </c>
       <c r="G51" t="n">
-        <v>0.1668026900818792</v>
+        <v>0.1661004069501521</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.4526975040187186</v>
       </c>
       <c r="E52" t="n">
-        <v>1.335958099598384</v>
+        <v>1.33735098547711</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.011816751159895</v>
+        <v>-1.011467799666168</v>
       </c>
       <c r="G52" t="n">
-        <v>0.1441631843842489</v>
+        <v>0.1435499641860672</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.4067045485908197</v>
       </c>
       <c r="E53" t="n">
-        <v>1.094371242236176</v>
+        <v>1.095640024027175</v>
       </c>
       <c r="F53" t="n">
-        <v>-0.9391589179639148</v>
+        <v>-0.938772005219824</v>
       </c>
       <c r="G53" t="n">
-        <v>0.1006289304576242</v>
+        <v>0.1002142767998061</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>0.3654273505685908</v>
       </c>
       <c r="E54" t="n">
-        <v>0.9504090404244869</v>
+        <v>0.9509390378814868</v>
       </c>
       <c r="F54" t="n">
-        <v>-0.9467088266420036</v>
+        <v>-0.9463525749078219</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04951264679491067</v>
+        <v>0.04917975583018348</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>0.3288300390055133</v>
       </c>
       <c r="E55" t="n">
-        <v>0.7896022637879847</v>
+        <v>0.7903016268235299</v>
       </c>
       <c r="F55" t="n">
-        <v>-0.8995171522476527</v>
+        <v>-0.8994587503240163</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02256599922909972</v>
+        <v>0.02209440369573621</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>0.2958663043521355</v>
       </c>
       <c r="E56" t="n">
-        <v>0.6448151348049326</v>
+        <v>0.6452867303382961</v>
       </c>
       <c r="F56" t="n">
-        <v>-0.8509734733211203</v>
+        <v>-0.8507749067807567</v>
       </c>
       <c r="G56" t="n">
-        <v>0.01576071507737427</v>
+        <v>0.01547454565155617</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>0.2659138836174161</v>
       </c>
       <c r="E57" t="n">
-        <v>0.501764003001971</v>
+        <v>0.5018267850698801</v>
       </c>
       <c r="F57" t="n">
-        <v>-0.819202826862947</v>
+        <v>-0.8189911198897653</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.01164146749280019</v>
+        <v>-0.01212620345898188</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>0.2373449715577751</v>
       </c>
       <c r="E58" t="n">
-        <v>0.3925027641669095</v>
+        <v>0.3921932339716369</v>
       </c>
       <c r="F58" t="n">
-        <v>-0.8130122229574941</v>
+        <v>-0.8133188330565849</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.02757643235697773</v>
+        <v>-0.02777791899352313</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>0.2100201126324428</v>
       </c>
       <c r="E59" t="n">
-        <v>0.2462205459387669</v>
+        <v>0.2460555605044943</v>
       </c>
       <c r="F59" t="n">
-        <v>-0.7483043516165114</v>
+        <v>-0.7485905210423296</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.09216457975450584</v>
+        <v>-0.09217041994686948</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>0.1832209273854305</v>
       </c>
       <c r="E60" t="n">
-        <v>0.186362954355783</v>
+        <v>0.1861906686810558</v>
       </c>
       <c r="F60" t="n">
-        <v>-0.7316831641496069</v>
+        <v>-0.7321985611256976</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.07968846881769101</v>
+        <v>-0.07985199420387278</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>0.1574482116601848</v>
       </c>
       <c r="E61" t="n">
-        <v>0.02865877991246172</v>
+        <v>0.02850693491100722</v>
       </c>
       <c r="F61" t="n">
-        <v>-0.7038969889315234</v>
+        <v>-0.7044547273022506</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.1363602354663122</v>
+        <v>-0.1362332112824031</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>0.132774290559633</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.05891198448406022</v>
+        <v>-0.05873823876124209</v>
       </c>
       <c r="F62" t="n">
-        <v>-0.7222585537227912</v>
+        <v>-0.7230601201247001</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.168857985873758</v>
+        <v>-0.1687441021226671</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>0.1095724957978342</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.152130214896217</v>
+        <v>-0.1518878469131262</v>
       </c>
       <c r="F63" t="n">
-        <v>-0.7558863813526003</v>
+        <v>-0.7567288291010547</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.1838468395750267</v>
+        <v>-0.1837314957758449</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>0.0877687179336859</v>
       </c>
       <c r="E64" t="n">
-        <v>-0.265702975743732</v>
+        <v>-0.2650751550646412</v>
       </c>
       <c r="F64" t="n">
-        <v>-0.7587597559955087</v>
+        <v>-0.7596314047057812</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.2174673669643813</v>
+        <v>-0.2172994614339268</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>0.06679594509348551</v>
       </c>
       <c r="E65" t="n">
-        <v>-0.4188605604319636</v>
+        <v>-0.4182239794643274</v>
       </c>
       <c r="F65" t="n">
-        <v>-0.7405982177926953</v>
+        <v>-0.7416012708311497</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.2378627787462849</v>
+        <v>-0.2376131105227395</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>0.04592547873717916</v>
       </c>
       <c r="E66" t="n">
-        <v>-0.4445106852930476</v>
+        <v>-0.4438522036040478</v>
       </c>
       <c r="F66" t="n">
-        <v>-0.7715205763100507</v>
+        <v>-0.7722243194898687</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.2540941333729169</v>
+        <v>-0.2536561189456443</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>0.02400299206274958</v>
       </c>
       <c r="E67" t="n">
-        <v>-0.5306710432337517</v>
+        <v>-0.5298125349562974</v>
       </c>
       <c r="F67" t="n">
-        <v>-0.8116937995314035</v>
+        <v>-0.8125099664142215</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.2691034277474583</v>
+        <v>-0.2686172317331857</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>0.0005707045378619906</v>
       </c>
       <c r="E68" t="n">
-        <v>-0.5649631927449243</v>
+        <v>-0.5642448490841973</v>
       </c>
       <c r="F68" t="n">
-        <v>-0.7623792152128713</v>
+        <v>-0.7628508107462348</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.3194093847197175</v>
+        <v>-0.3195495493364448</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.02437837744381324</v>
       </c>
       <c r="E69" t="n">
-        <v>-0.6454760846699936</v>
+        <v>-0.6447592010573574</v>
       </c>
       <c r="F69" t="n">
-        <v>-0.8076348658386774</v>
+        <v>-0.80832984872995</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.3186852008666268</v>
+        <v>-0.3184136319217178</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.05114392697250732</v>
       </c>
       <c r="E70" t="n">
-        <v>-0.7543606310976008</v>
+        <v>-0.7535678249842374</v>
       </c>
       <c r="F70" t="n">
-        <v>-0.8054623142794052</v>
+        <v>-0.8059470502455869</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.3577254267694345</v>
+        <v>-0.3576903856152527</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.07990685224802953</v>
       </c>
       <c r="E71" t="n">
-        <v>-0.7829921741603203</v>
+        <v>-0.7821307457866842</v>
       </c>
       <c r="F71" t="n">
-        <v>-0.9330237958859164</v>
+        <v>-0.9336121952665526</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.4018962616636954</v>
+        <v>-0.4019780243567863</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.1102480411792576</v>
       </c>
       <c r="E72" t="n">
-        <v>-0.8262183579397633</v>
+        <v>-0.8247860507625818</v>
       </c>
       <c r="F72" t="n">
-        <v>-0.9994866450321713</v>
+        <v>-1.000193308308171</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.4197920711139633</v>
+        <v>-0.4200169185199633</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.1417082320244052</v>
       </c>
       <c r="E73" t="n">
-        <v>-0.8761082012061135</v>
+        <v>-0.8752555331210229</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.032955327420071</v>
+        <v>-1.034038683103526</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.4529453831142272</v>
+        <v>-0.4530067051340453</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.1729365251340502</v>
       </c>
       <c r="E74" t="n">
-        <v>-0.8183048972870381</v>
+        <v>-0.8179165244948564</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.058439006798792</v>
+        <v>-1.059266854066337</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.4673005759440415</v>
+        <v>-0.4675721448889505</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.2028536885811481</v>
       </c>
       <c r="E75" t="n">
-        <v>-0.8017114507338607</v>
+        <v>-0.8013186977974063</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.122511757220229</v>
+        <v>-1.123633074154047</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.4560319247784081</v>
+        <v>-0.4563618956469535</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.2301971165037992</v>
       </c>
       <c r="E76" t="n">
-        <v>-0.7181105570965196</v>
+        <v>-0.7176448017555197</v>
       </c>
       <c r="F76" t="n">
-        <v>-1.163832578241036</v>
+        <v>-1.165450311525763</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.4586862922076801</v>
+        <v>-0.4590308635571346</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.2540604471029174</v>
       </c>
       <c r="E77" t="n">
-        <v>-0.567975271956469</v>
+        <v>-0.5676175601741964</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.14884810468404</v>
+        <v>-1.150016143156767</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.43877853648814</v>
+        <v>-0.4390165243269581</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.2730875055656546</v>
       </c>
       <c r="E78" t="n">
-        <v>-0.4304621025623241</v>
+        <v>-0.4294006476002334</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.172538845007125</v>
+        <v>-1.173870408866034</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.4509874586243186</v>
+        <v>-0.4515962986782275</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.2859408629300575</v>
       </c>
       <c r="E79" t="n">
-        <v>-0.3281127313896243</v>
+        <v>-0.3268191287810792</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.253907325113467</v>
+        <v>-1.255089964067103</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.3950530162616063</v>
+        <v>-0.3957056577582425</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.2910855008581871</v>
       </c>
       <c r="E80" t="n">
-        <v>-0.1391883486184023</v>
+        <v>-0.1378027629801299</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.310311902961451</v>
+        <v>-1.311624486195178</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.372558055324976</v>
+        <v>-0.373213616917794</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.2868318585270025</v>
       </c>
       <c r="E81" t="n">
-        <v>0.0185012253440099</v>
+        <v>0.02006639689746403</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.30097489542009</v>
+        <v>-1.302578028223908</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.3229821223981711</v>
+        <v>-0.3236099430772619</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.2722386502612835</v>
       </c>
       <c r="E82" t="n">
-        <v>0.2300256925144077</v>
+        <v>0.231795270800589</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.288662309869457</v>
+        <v>-1.290649435321184</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.2872927068639989</v>
+        <v>-0.2880533919193624</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.2464220275950983</v>
       </c>
       <c r="E83" t="n">
-        <v>0.4120732487774497</v>
+        <v>0.4144093257229036</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.230183003684291</v>
+        <v>-1.231754015430109</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.2694217182312764</v>
+        <v>-0.2699838367462763</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.2089797828985751</v>
       </c>
       <c r="E84" t="n">
-        <v>0.6197285885069393</v>
+        <v>0.6217609754494843</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.153058883378221</v>
+        <v>-1.154238602235675</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.2449016705925557</v>
+        <v>-0.2458434016111918</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.160185687217787</v>
       </c>
       <c r="E85" t="n">
-        <v>0.7347672376377267</v>
+        <v>0.7365966778956352</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.065539220664881</v>
+        <v>-1.06635684759579</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.2094984244842016</v>
+        <v>-0.2102415889624741</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.1027858203237561</v>
       </c>
       <c r="E86" t="n">
-        <v>0.9599154135443935</v>
+        <v>0.9619463404388475</v>
       </c>
       <c r="F86" t="n">
-        <v>-0.9994326232528077</v>
+        <v>-1.00035245355008</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.1799543513646641</v>
+        <v>-0.1809442639703002</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.04088079491371526</v>
       </c>
       <c r="E87" t="n">
-        <v>1.103480482275355</v>
+        <v>1.105655953930809</v>
       </c>
       <c r="F87" t="n">
-        <v>-0.9431492293963682</v>
+        <v>-0.9443143477729133</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.1500919877613085</v>
+        <v>-0.1511008809921264</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>0.0200076508095658</v>
       </c>
       <c r="E88" t="n">
-        <v>1.206489795185145</v>
+        <v>1.208633145782599</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.8875243172289287</v>
+        <v>-0.8888120796451101</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.1137528508266819</v>
+        <v>-0.1148405866544088</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>0.07361875315634689</v>
       </c>
       <c r="E89" t="n">
-        <v>1.329069592705476</v>
+        <v>1.330899032963385</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.7900398262951366</v>
+        <v>-0.7914005911158636</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.112070875425955</v>
+        <v>-0.1129746451942275</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.1138505832658551</v>
       </c>
       <c r="E90" t="n">
-        <v>1.367934612837375</v>
+        <v>1.369336259004647</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.6900090114907999</v>
+        <v>-0.691365396167254</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.07802693409023691</v>
+        <v>-0.07881974020360033</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.1363957576539709</v>
       </c>
       <c r="E91" t="n">
-        <v>1.412984396682363</v>
+        <v>1.414292599771817</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.5838766557145556</v>
+        <v>-0.5856257933274642</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.01754444192434406</v>
+        <v>-0.01806713914088937</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.1392326597865111</v>
       </c>
       <c r="E92" t="n">
-        <v>1.436899984411447</v>
+        <v>1.438027141537629</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.4553763631855901</v>
+        <v>-0.4572525249824078</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.02024845098870697</v>
+        <v>-0.02100767599597949</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>0.1251359229464234</v>
       </c>
       <c r="E93" t="n">
-        <v>1.408937143374364</v>
+        <v>1.409811712180818</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.3469035503196193</v>
+        <v>-0.3485563247585279</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.0135234694819815</v>
+        <v>-0.01423597295034494</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>0.09908980202527408</v>
       </c>
       <c r="E94" t="n">
-        <v>1.408464087792909</v>
+        <v>1.409874494248727</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.207236809991384</v>
+        <v>-0.2091991146255653</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.01695166239943512</v>
+        <v>-0.01734295528779866</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>0.06628820906823503</v>
       </c>
       <c r="E95" t="n">
-        <v>1.334851383145475</v>
+        <v>1.336020881666292</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.09197769359886952</v>
+        <v>-0.0934173010165055</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.01905851179461638</v>
+        <v>-0.01937826232652538</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>0.03022702509876118</v>
       </c>
       <c r="E96" t="n">
-        <v>1.256160631237859</v>
+        <v>1.257950650197313</v>
       </c>
       <c r="F96" t="n">
-        <v>0.03439384881355109</v>
+        <v>0.03311046654164234</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.03370425419452153</v>
+        <v>-0.03414226862179415</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.007224769129832246</v>
       </c>
       <c r="E97" t="n">
-        <v>1.174336616127154</v>
+        <v>1.176536908600154</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1334347510122518</v>
+        <v>0.1328536518720701</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.05243813124897105</v>
+        <v>-0.05275350163660733</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.04700404136406434</v>
       </c>
       <c r="E98" t="n">
-        <v>1.077665371979998</v>
+        <v>1.079029056896907</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1943654779420536</v>
+        <v>0.1938354804850537</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.05773226562660599</v>
+        <v>-0.05794689269596957</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.08811305049895066</v>
       </c>
       <c r="E99" t="n">
-        <v>0.9405186746566714</v>
+        <v>0.9419086404392165</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1954575939140533</v>
+        <v>0.195334949874417</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.05304551125478907</v>
+        <v>-0.05300755000442544</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.1322110823417958</v>
       </c>
       <c r="E100" t="n">
-        <v>0.8463265921678785</v>
+        <v>0.8478815433846962</v>
       </c>
       <c r="F100" t="n">
-        <v>0.2115852851262308</v>
+        <v>0.2115794449338672</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.04610298258251821</v>
+        <v>-0.04618036513133637</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.1753429492776088</v>
       </c>
       <c r="E101" t="n">
-        <v>0.6947619199468283</v>
+        <v>0.6962818300094643</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1984579927408707</v>
+        <v>0.1981703632669617</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.04980128439678994</v>
+        <v>-0.04977938367542631</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.2211430200812833</v>
       </c>
       <c r="E102" t="n">
-        <v>0.634445873263299</v>
+        <v>0.6362023111166623</v>
       </c>
       <c r="F102" t="n">
-        <v>0.2071160779199593</v>
+        <v>0.2067189448392321</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.08172669595259954</v>
+        <v>-0.08186394047314496</v>
       </c>
     </row>
   </sheetData>
